--- a/words.xlsx
+++ b/words.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="394">
   <si>
     <t>Hyper</t>
   </si>
@@ -114,12 +114,6 @@
     <t>Companion</t>
   </si>
   <si>
-    <t>Ingots</t>
-  </si>
-  <si>
-    <t>Nebula milan9</t>
-  </si>
-  <si>
     <t>Pierce</t>
   </si>
   <si>
@@ -1033,6 +1027,177 @@
   </si>
   <si>
     <t>Immense</t>
+  </si>
+  <si>
+    <t>Logos</t>
+  </si>
+  <si>
+    <t>Bloom</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
+    <t>Valkyrie</t>
+  </si>
+  <si>
+    <t>Irwin</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>IngotsNebula</t>
+  </si>
+  <si>
+    <t>milan</t>
+  </si>
+  <si>
+    <t>Prometheus</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Potentate</t>
+  </si>
+  <si>
+    <t>Romeo</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>Excalibur</t>
+  </si>
+  <si>
+    <t>Kukri</t>
+  </si>
+  <si>
+    <t>Kubrick</t>
+  </si>
+  <si>
+    <t>Solitude</t>
+  </si>
+  <si>
+    <t>Soliton</t>
+  </si>
+  <si>
+    <t>Ketimer</t>
+  </si>
+  <si>
+    <t>Kilo</t>
+  </si>
+  <si>
+    <t>Keylo</t>
+  </si>
+  <si>
+    <t>Kessler</t>
+  </si>
+  <si>
+    <t>DeltaHeavy</t>
+  </si>
+  <si>
+    <t>Delta9</t>
+  </si>
+  <si>
+    <t>Makyra</t>
+  </si>
+  <si>
+    <t>Rumfaya</t>
+  </si>
+  <si>
+    <t>Monox</t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>Arc</t>
+  </si>
+  <si>
+    <t>Ark</t>
+  </si>
+  <si>
+    <t>Monoloc</t>
+  </si>
+  <si>
+    <t>Simms</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Finny</t>
+  </si>
+  <si>
+    <t>Cy</t>
+  </si>
+  <si>
+    <t>SplinterOne</t>
+  </si>
+  <si>
+    <t>Garvey</t>
+  </si>
+  <si>
+    <t>Baldy</t>
+  </si>
+  <si>
+    <t>Beetle</t>
+  </si>
+  <si>
+    <t>Boney</t>
+  </si>
+  <si>
+    <t>Bull</t>
+  </si>
+  <si>
+    <t>Banjo</t>
+  </si>
+  <si>
+    <t>Buzz</t>
+  </si>
+  <si>
+    <t>Butcher</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>AlephNull</t>
+  </si>
+  <si>
+    <t>Granite</t>
+  </si>
+  <si>
+    <t>Bo</t>
+  </si>
+  <si>
+    <t>Hydra</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Kepler</t>
+  </si>
+  <si>
+    <t>Chaz</t>
+  </si>
+  <si>
+    <t>Tiny</t>
+  </si>
+  <si>
+    <t>Speeder</t>
+  </si>
+  <si>
+    <t>Speer</t>
+  </si>
+  <si>
+    <t>Flux</t>
   </si>
 </sst>
 </file>
@@ -1371,11 +1536,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A361"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1400,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1408,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1416,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1424,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1432,7 +1595,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,7 +1603,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1456,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1464,7 +1627,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1472,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1480,7 +1643,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1488,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1496,7 +1659,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,7 +1667,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1512,7 +1675,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,7 +1683,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1528,7 +1691,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1536,7 +1699,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1544,7 +1707,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1552,7 +1715,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1560,7 +1723,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1568,7 +1731,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1739,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1747,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,7 +1755,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1763,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1771,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1779,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1787,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1632,7 +1795,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,7 +1803,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1648,7 +1811,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1656,7 +1819,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,7 +1827,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1835,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1843,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,7 +1851,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1696,7 +1859,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1704,7 +1867,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1712,7 +1875,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1720,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1728,7 +1891,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1736,7 +1899,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1744,7 +1907,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1752,7 +1915,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1760,7 +1923,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1768,7 +1931,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1776,7 +1939,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1784,7 +1947,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1792,7 +1955,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1800,7 +1963,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1808,7 +1971,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1816,7 +1979,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1824,7 +1987,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1832,7 +1995,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1840,7 +2003,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1848,7 +2011,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1856,7 +2019,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1864,7 +2027,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1872,7 +2035,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1880,7 +2043,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1888,7 +2051,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1896,7 +2059,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1904,7 +2067,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1912,7 +2075,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1920,7 +2083,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1928,7 +2091,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1936,7 +2099,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1944,7 +2107,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1952,7 +2115,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1960,7 +2123,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1968,7 +2131,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1976,7 +2139,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +2147,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +2155,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2163,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2171,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2179,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2187,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2195,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2203,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2211,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2219,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2227,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2235,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2243,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2251,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2259,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2267,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2275,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2283,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2291,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2299,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2307,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2315,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2323,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2331,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2339,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2347,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2355,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2363,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2371,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2379,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2387,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2395,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2403,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2411,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2419,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2427,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2435,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2443,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2451,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2459,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2467,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2475,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2483,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2491,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2499,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2507,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2515,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2523,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2531,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2539,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2547,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2555,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2563,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2571,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2579,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2587,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2595,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2603,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2611,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2619,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2627,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2635,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2643,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2651,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2659,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2667,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2675,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2683,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2691,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2699,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2707,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2715,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2723,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2731,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2739,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2747,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2755,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2763,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2771,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>348</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2779,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>349</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2787,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>350</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2795,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2803,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>352</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2811,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>353</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2819,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>354</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2827,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2835,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2843,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2851,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2859,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2867,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2875,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2883,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2891,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2899,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2907,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2915,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2923,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2931,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2776,7 +2939,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2784,7 +2947,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -2792,7 +2955,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,7 +2963,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,7 +2971,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2816,7 +2979,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2824,7 +2987,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -2832,7 +2995,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -2840,7 +3003,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +3011,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -2856,7 +3019,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,7 +3027,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,7 +3035,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2880,7 +3043,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2888,7 +3051,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +3059,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -2904,7 +3067,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -2912,7 +3075,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +3083,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -2928,7 +3091,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2936,7 +3099,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2944,7 +3107,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2952,7 +3115,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2960,7 +3123,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,7 +3131,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2976,7 +3139,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,7 +3147,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +3155,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,7 +3163,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,7 +3171,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3016,7 +3179,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3187,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3195,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +3203,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +3211,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3056,7 +3219,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +3227,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,7 +3235,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3080,7 +3243,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +3251,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,7 +3259,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,7 +3267,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,7 +3275,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +3283,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3291,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3299,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3307,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3315,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3323,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3331,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3339,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3347,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3355,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3200,7 +3363,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3208,7 +3371,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3216,7 +3379,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3224,7 +3387,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3232,7 +3395,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3240,7 +3403,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3248,7 +3411,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3256,7 +3419,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3264,7 +3427,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3272,7 +3435,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>230</v>
+        <v>19</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3280,7 +3443,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3288,7 +3451,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3296,7 +3459,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3304,7 +3467,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3312,7 +3475,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3320,7 +3483,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3328,7 +3491,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3336,7 +3499,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3344,7 +3507,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3352,7 +3515,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3360,7 +3523,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3368,7 +3531,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3376,7 +3539,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3384,7 +3547,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3392,7 +3555,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3400,7 +3563,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3408,7 +3571,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3416,7 +3579,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3424,7 +3587,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3432,7 +3595,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3440,7 +3603,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3448,7 +3611,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3456,7 +3619,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3464,7 +3627,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3472,7 +3635,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3480,7 +3643,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3488,7 +3651,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3496,7 +3659,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3504,7 +3667,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3512,7 +3675,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3520,7 +3683,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3528,7 +3691,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3536,7 +3699,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3544,7 +3707,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3552,7 +3715,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3560,7 +3723,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3568,7 +3731,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -3576,7 +3739,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -3584,7 +3747,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -3592,7 +3755,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>87</v>
+        <v>251</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -3600,7 +3763,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -3608,7 +3771,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -3616,7 +3779,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -3624,7 +3787,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -3632,7 +3795,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>269</v>
+        <v>35</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -3640,7 +3803,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -3648,7 +3811,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -3656,7 +3819,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -3664,7 +3827,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -3672,7 +3835,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -3680,7 +3843,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -3688,7 +3851,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>276</v>
+        <v>33</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -3696,7 +3859,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>277</v>
+        <v>170</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -3704,7 +3867,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -3712,7 +3875,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -3720,7 +3883,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -3728,7 +3891,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>281</v>
+        <v>85</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -3736,7 +3899,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -3744,7 +3907,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -3752,7 +3915,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -3760,7 +3923,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -3768,7 +3931,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -3776,7 +3939,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -3784,7 +3947,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -3792,7 +3955,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -3800,7 +3963,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -3808,7 +3971,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -3816,7 +3979,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -3824,7 +3987,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -3832,7 +3995,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -3840,7 +4003,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -3848,7 +4011,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -3856,7 +4019,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -3864,7 +4027,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -3872,7 +4035,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -3880,7 +4043,7 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -3888,7 +4051,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -3896,7 +4059,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -3904,7 +4067,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -3912,7 +4075,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -3920,7 +4083,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -3928,7 +4091,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>77</v>
+        <v>286</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -3936,7 +4099,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -3944,7 +4107,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -3952,7 +4115,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -3960,7 +4123,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -3968,7 +4131,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -3976,7 +4139,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>61</v>
+        <v>292</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -3984,7 +4147,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -3992,7 +4155,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4000,7 +4163,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4008,7 +4171,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>118</v>
+        <v>296</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4016,7 +4179,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4024,7 +4187,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4032,7 +4195,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4040,7 +4203,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4048,7 +4211,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4056,7 +4219,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4064,7 +4227,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>319</v>
+        <v>75</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4072,7 +4235,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4080,7 +4243,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4088,7 +4251,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -4096,7 +4259,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>7</v>
+        <v>306</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -4104,7 +4267,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4112,7 +4275,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -4120,7 +4283,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -4128,7 +4291,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4136,7 +4299,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -4144,7 +4307,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>326</v>
+        <v>116</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4152,7 +4315,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -4160,7 +4323,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4168,7 +4331,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -4176,7 +4339,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>71</v>
+        <v>314</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4184,7 +4347,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4192,7 +4355,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4200,7 +4363,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4208,7 +4371,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4216,7 +4379,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4224,7 +4387,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -4232,7 +4395,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>335</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4240,7 +4403,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -4248,7 +4411,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>336</v>
+        <v>126</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -4256,7 +4419,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -4264,7 +4427,511 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>338</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <f>A361+1</f>
+        <v>362</v>
+      </c>
+      <c r="B362" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <f t="shared" ref="A363:A417" si="0">A362+1</f>
+        <v>363</v>
+      </c>
+      <c r="B363" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="B364" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="B365" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+      <c r="B366" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="B367" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+      <c r="B368" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <f t="shared" si="0"/>
+        <v>369</v>
+      </c>
+      <c r="B369" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="B370" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+      <c r="B371" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="B372" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <f t="shared" si="0"/>
+        <v>373</v>
+      </c>
+      <c r="B373" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <f t="shared" si="0"/>
+        <v>374</v>
+      </c>
+      <c r="B374" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="B375" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+      <c r="B376" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="B377" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="B378" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <f t="shared" si="0"/>
+        <v>379</v>
+      </c>
+      <c r="B379" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="B380" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="B381" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="B382" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <f t="shared" si="0"/>
+        <v>383</v>
+      </c>
+      <c r="B383" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="B384" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="B385" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <f t="shared" si="0"/>
+        <v>386</v>
+      </c>
+      <c r="B386" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <f t="shared" si="0"/>
+        <v>387</v>
+      </c>
+      <c r="B387" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="B388" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <f t="shared" si="0"/>
+        <v>389</v>
+      </c>
+      <c r="B389" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="B390" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <f t="shared" si="0"/>
+        <v>391</v>
+      </c>
+      <c r="B391" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <f t="shared" si="0"/>
+        <v>392</v>
+      </c>
+      <c r="B392" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+      <c r="B393" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <f t="shared" si="0"/>
+        <v>394</v>
+      </c>
+      <c r="B394" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="B395" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="B396" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <f t="shared" si="0"/>
+        <v>397</v>
+      </c>
+      <c r="B397" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+      <c r="B398" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="B399" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="B400" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <f t="shared" si="0"/>
+        <v>401</v>
+      </c>
+      <c r="B401" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <f t="shared" si="0"/>
+        <v>402</v>
+      </c>
+      <c r="B402" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <f t="shared" si="0"/>
+        <v>403</v>
+      </c>
+      <c r="B403" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <f t="shared" si="0"/>
+        <v>404</v>
+      </c>
+      <c r="B404" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="B405" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+      <c r="B406" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
+      <c r="B407" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="B408" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <f t="shared" si="0"/>
+        <v>409</v>
+      </c>
+      <c r="B409" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="B410" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <f t="shared" si="0"/>
+        <v>411</v>
+      </c>
+      <c r="B411" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <f t="shared" si="0"/>
+        <v>412</v>
+      </c>
+      <c r="B412" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
+      <c r="B413" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+      <c r="B414" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <f t="shared" si="0"/>
+        <v>415</v>
+      </c>
+      <c r="B415" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+      <c r="B416" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <f t="shared" si="0"/>
+        <v>417</v>
+      </c>
+      <c r="B417" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
